--- a/Members/Members.xlsx
+++ b/Members/Members.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\School\Software Engineering\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zachm\Documents\GitHub\Project-1\Members\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{327FF085-10E9-47E4-9EA9-7837F2483843}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16259BD3-96DB-4252-8E2C-674B301113CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{22F6B5D2-D1AB-477B-9022-59D50C457390}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Name</t>
   </si>
@@ -90,16 +90,42 @@
   </si>
   <si>
     <t>In charge of securing code and assisting with design with security in mind</t>
+  </si>
+  <si>
+    <t>Contact</t>
+  </si>
+  <si>
+    <t>petersa3@lopers.unk.edu</t>
+  </si>
+  <si>
+    <t>madisonz@lopers.unk.edu</t>
+  </si>
+  <si>
+    <t>schrockk@lopers.unk.edu</t>
+  </si>
+  <si>
+    <t>gilbertk@lopers.unk.edu</t>
+  </si>
+  <si>
+    <t>prestons@lopers.unk.edu</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -122,13 +148,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -461,10 +490,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB39FF17-DC30-46B0-AC22-68ECD763994E}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -472,9 +501,10 @@
     <col min="1" max="1" width="22.1796875" customWidth="1"/>
     <col min="2" max="2" width="21.08984375" customWidth="1"/>
     <col min="3" max="3" width="61.36328125" customWidth="1"/>
+    <col min="4" max="4" width="24.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -484,8 +514,11 @@
       <c r="C1" t="s">
         <v>4</v>
       </c>
+      <c r="D1" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -495,8 +528,11 @@
       <c r="C2" t="s">
         <v>13</v>
       </c>
+      <c r="D2" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -506,8 +542,11 @@
       <c r="C3" t="s">
         <v>14</v>
       </c>
+      <c r="D3" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -517,8 +556,11 @@
       <c r="C4" t="s">
         <v>15</v>
       </c>
+      <c r="D4" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="5" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -528,8 +570,11 @@
       <c r="C5" t="s">
         <v>16</v>
       </c>
+      <c r="D5" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="6" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -539,13 +584,40 @@
       <c r="C6" t="s">
         <v>17</v>
       </c>
+      <c r="D6" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D4" r:id="rId1" xr:uid="{E22ADB06-0FEB-476A-8030-0D5CBF0717CC}"/>
+    <hyperlink ref="D5" r:id="rId2" xr:uid="{15B39C48-D53E-426F-9B97-6A6191B9F06B}"/>
+    <hyperlink ref="D2" r:id="rId3" xr:uid="{862258D0-A604-4040-86E9-D6D33577AEF0}"/>
+    <hyperlink ref="D3" r:id="rId4" xr:uid="{16E8EE26-0DE7-49B8-8162-939F3FBCEB13}"/>
+    <hyperlink ref="D6" r:id="rId5" xr:uid="{2579BE97-2290-4B01-A547-AB1E09E2E4D3}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="90e1923e-aa41-4680-b248-37ed28bea1bf" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006461DAEB72822A44B7BCE5591B834A97" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3b4f9b835b0a09feab04d463616b7932">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="90e1923e-aa41-4680-b248-37ed28bea1bf" xmlns:ns4="6ef526e3-e9de-4e58-b8fa-e04984dbee64" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="26bff222c8ed28b5fa75c64114f68848" ns3:_="" ns4:_="">
     <xsd:import namespace="90e1923e-aa41-4680-b248-37ed28bea1bf"/>
@@ -734,24 +806,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="90e1923e-aa41-4680-b248-37ed28bea1bf" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD1BE39D-335E-436F-819D-E528AD0411C8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="90e1923e-aa41-4680-b248-37ed28bea1bf"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="6ef526e3-e9de-4e58-b8fa-e04984dbee64"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D69BC0B3-0053-424B-B53C-504FC8727DC0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E83FFF44-2DC9-4079-B31C-4A19A00D87A4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -768,29 +848,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D69BC0B3-0053-424B-B53C-504FC8727DC0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD1BE39D-335E-436F-819D-E528AD0411C8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="90e1923e-aa41-4680-b248-37ed28bea1bf"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="6ef526e3-e9de-4e58-b8fa-e04984dbee64"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Members/Members.xlsx
+++ b/Members/Members.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zachm\Documents\GitHub\Project-1\Members\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16259BD3-96DB-4252-8E2C-674B301113CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E18A7E2-1ABB-458F-9A9E-C43DF053BD39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{22F6B5D2-D1AB-477B-9022-59D50C457390}"/>
   </bookViews>
@@ -493,7 +493,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D6" sqref="A1:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
